--- a/biology/Botanique/Cyanea_kuhihewa/Cyanea_kuhihewa.xlsx
+++ b/biology/Botanique/Cyanea_kuhihewa/Cyanea_kuhihewa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyanea kuhihewa est une espèce de plante de la famille des Campanulaceae. Elle est peut-être éteinte au niveau sauvage.
 </t>
@@ -511,10 +523,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Auparavant présente dans tout l'archipel d'Hawaï, cette espèce ne survit plus que sur l'île de Kaua'i où elle n'a pas été observée depuis 2003.
-Elle pousse dans la forêt tropicale humide de basse altitude avec Metrosideros polymorpha, Dicranopteris linearis, Broussaisia arguta, Cibotium sp., Clermontia fauriei, Bidens sp., Dubautia knudsenii, Ilex anomala, Psychotria spp., Kadua spp., Melicope spp., Pipturus sp., Cyrtandra spp., et Antidesma[1]. 
+Elle pousse dans la forêt tropicale humide de basse altitude avec Metrosideros polymorpha, Dicranopteris linearis, Broussaisia arguta, Cibotium sp., Clermontia fauriei, Bidens sp., Dubautia knudsenii, Ilex anomala, Psychotria spp., Kadua spp., Melicope spp., Pipturus sp., Cyrtandra spp., et Antidesma. 
 </t>
         </is>
       </c>
